--- a/physical-model/model.xlsx
+++ b/physical-model/model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIGVI\Desktop\db\1.3\physical-model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dockuments\IRNITU\Семестр 4\Базы данных\1.4\physical-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A838FC8C-FFF4-4337-8D0A-E6D194998BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563DA561-29A2-420D-A098-FEE46F87B6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7416" yWindow="1308" windowWidth="18432" windowHeight="14772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="190">
   <si>
     <t>id</t>
   </si>
@@ -578,6 +578,18 @@
   </si>
   <si>
     <t>users (Пользователи)</t>
+  </si>
+  <si>
+    <t>PRIMARY  KEY</t>
+  </si>
+  <si>
+    <t>Идентификатор элемента группы</t>
+  </si>
+  <si>
+    <t>group_items (Промежуточная таблица)</t>
+  </si>
+  <si>
+    <t>Порядковый номер элемента</t>
   </si>
 </sst>
 </file>
@@ -599,7 +611,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -622,11 +634,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -636,6 +685,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -942,15 +1000,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="K2:O133"/>
+  <dimension ref="K2:O151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G102" workbookViewId="0">
-      <selection activeCell="K109" sqref="K109:O109"/>
+    <sheetView tabSelected="1" topLeftCell="J119" workbookViewId="0">
+      <selection activeCell="Q137" sqref="Q137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" customWidth="1"/>
     <col min="13" max="13" width="31.77734375" customWidth="1"/>
     <col min="14" max="14" width="14.33203125" customWidth="1"/>
     <col min="15" max="15" width="30.88671875" style="1" customWidth="1"/>
@@ -1304,37 +1363,39 @@
     </row>
     <row r="27" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K27" s="2" t="s">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="O27" s="3" t="s">
-        <v>48</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K28" s="2" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K29" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>5</v>
@@ -1344,40 +1405,42 @@
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K30" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>5</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K31" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M31" s="2"/>
+      <c r="M31" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K32" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>5</v>
@@ -1385,126 +1448,126 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K33" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="M33" s="2"/>
-      <c r="N33" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K35" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M34" s="2" t="s">
+      <c r="L35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="3" t="s">
+      <c r="N35" s="2"/>
+      <c r="O35" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="11:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="K35" s="2" t="s">
+    <row r="36" spans="11:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K36" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="L36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2" t="s">
+      <c r="M36" s="2"/>
+      <c r="N36" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O35" s="3" t="s">
+      <c r="O36" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K36" s="2" t="s">
+    <row r="37" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K37" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="L36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M36" s="2" t="s">
+      <c r="L37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M37" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="3" t="s">
+      <c r="N37" s="2"/>
+      <c r="O37" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K38" s="4" t="s">
+    <row r="39" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K39" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-    </row>
-    <row r="39" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="7"/>
     </row>
     <row r="40" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K40" s="2" t="s">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>5</v>
+        <v>167</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="O40" s="3" t="s">
-        <v>72</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K41" s="2" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K42" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>5</v>
@@ -1514,234 +1577,240 @@
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K43" s="2" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>5</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="3" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K44" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M44" s="2"/>
+      <c r="M44" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" s="3" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K45" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M45" s="2"/>
+      <c r="M45" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="11:15" ht="28.8" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K46" s="2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="M46" s="2"/>
-      <c r="N46" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="3" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K47" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="M47" s="2"/>
-      <c r="N47" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="11:15" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="11:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="K48" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="O48" s="3" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K49" s="2" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="O49" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="11:15" ht="28.8" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K50" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K51" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="11:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K52" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K52" s="4" t="s">
+    <row r="54" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K54" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-    </row>
-    <row r="53" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K53" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K54" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="7"/>
     </row>
     <row r="55" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K55" s="2" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="O55" s="3" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K56" s="2" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K57" s="2" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K58" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K59" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="M59" s="2"/>
-      <c r="N59" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K60" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>14</v>
@@ -1749,51 +1818,53 @@
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K61" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K62" s="2" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+      <c r="N62" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="O62" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K63" s="2" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" s="3" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K64" s="2" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>5</v>
@@ -1801,139 +1872,135 @@
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" s="3" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K65" s="2" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M65" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K66" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M66" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" s="3" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K67" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="M67" s="2"/>
-      <c r="N67" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="3" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K68" s="2" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="3" t="s">
-        <v>184</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K69" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K70" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
-    </row>
-    <row r="71" spans="11:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K70" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K71" s="2" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="72" spans="11:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="K72" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="3" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K73" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="K73" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="7"/>
     </row>
     <row r="74" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K74" s="2" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="O74" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="75" spans="11:15" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="75" spans="11:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="K75" s="2" t="s">
         <v>0</v>
       </c>
@@ -1945,215 +2012,240 @@
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="11:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K76" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K77" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
-      <c r="O77" s="4"/>
+      <c r="K77" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="3" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="78" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K78" s="2" t="s">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K79" s="2" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="80" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K80" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O80" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K81" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="L81" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="K81" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="7"/>
     </row>
     <row r="82" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K82" s="2" t="s">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="N82" s="2" t="s">
-        <v>66</v>
+        <v>169</v>
       </c>
       <c r="O82" s="3" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K83" s="2" t="s">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K84" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K85" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M85" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="O85" s="3" t="s">
-        <v>106</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K86" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="87" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K87" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
-      <c r="O87" s="4"/>
-    </row>
-    <row r="88" spans="11:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K87" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O87" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K88" s="2" t="s">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M88" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="O88" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K89" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="O89" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K90" s="2" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="L90" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="91" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K91" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="L91" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M91" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" s="3" t="s">
-        <v>126</v>
-      </c>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K92" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
+      <c r="O92" s="7"/>
     </row>
     <row r="93" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K93" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4"/>
-      <c r="O93" s="4"/>
-    </row>
-    <row r="94" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K93" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N93" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="O93" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="94" spans="11:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="K94" s="2" t="s">
         <v>0</v>
       </c>
@@ -2165,513 +2257,754 @@
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="95" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K95" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K96" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="3" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K97" s="2" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="98" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K98" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L98" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
-      <c r="O98" s="3" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K99" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L99" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
-      <c r="O99" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="K99" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+      <c r="O99" s="7"/>
     </row>
     <row r="100" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K100" s="2" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M100" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="N100" s="2" t="s">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="O100" s="3" t="s">
-        <v>61</v>
+        <v>170</v>
       </c>
     </row>
     <row r="101" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K101" s="2" t="s">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="3" t="s">
-        <v>63</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K102" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="103" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K103" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="L103" s="4"/>
-      <c r="M103" s="4"/>
-      <c r="N103" s="4"/>
-      <c r="O103" s="4"/>
-    </row>
-    <row r="104" spans="11:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K103" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="104" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K104" s="2" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="3" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
     </row>
     <row r="105" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K105" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M105" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M105" s="2"/>
       <c r="N105" s="2"/>
       <c r="O105" s="3" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
     </row>
     <row r="106" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K106" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M106" s="2" t="s">
-        <v>69</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M106" s="2"/>
       <c r="N106" s="2"/>
       <c r="O106" s="3" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="107" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K107" s="2" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M107" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="N107" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="O107" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="109" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K109" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="L109" s="4"/>
-      <c r="M109" s="4"/>
-      <c r="N109" s="4"/>
-      <c r="O109" s="4"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="108" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K108" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L108" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="O108" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="110" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K110" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L110" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M110" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N110" s="2"/>
-      <c r="O110" s="3" t="s">
-        <v>134</v>
-      </c>
+      <c r="K110" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="L110" s="6"/>
+      <c r="M110" s="6"/>
+      <c r="N110" s="6"/>
+      <c r="O110" s="7"/>
     </row>
     <row r="111" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K111" s="2" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>5</v>
+        <v>167</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N111" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N111" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="O111" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="112" spans="11:15" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="112" spans="11:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="K112" s="2" t="s">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K113" s="2" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M113" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="N113" s="2"/>
       <c r="O113" s="3" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="114" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K114" s="2" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="116" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K116" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="L116" s="4"/>
-      <c r="M116" s="4"/>
-      <c r="N116" s="4"/>
-      <c r="O116" s="4"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K115" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N115" s="2"/>
+      <c r="O115" s="3" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="117" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K117" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L117" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M117" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N117" s="2"/>
-      <c r="O117" s="3" t="s">
-        <v>143</v>
-      </c>
+      <c r="K117" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="L117" s="6"/>
+      <c r="M117" s="6"/>
+      <c r="N117" s="6"/>
+      <c r="O117" s="7"/>
     </row>
     <row r="118" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K118" s="2" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M118" s="2"/>
-      <c r="N118" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N118" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="O118" s="3" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
     </row>
     <row r="119" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K119" s="2" t="s">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>147</v>
+        <v>1</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="3" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K120" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="M120" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="M120" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="N120" s="2"/>
       <c r="O120" s="3" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K121" s="2" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M121" s="2"/>
+      <c r="M121" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="N121" s="2"/>
       <c r="O121" s="3" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K122" s="2" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="M122" s="2"/>
-      <c r="N122" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="N122" s="2"/>
       <c r="O122" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="123" spans="11:15" ht="28.8" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="123" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K123" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>155</v>
+        <v>9</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="3" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="125" spans="11:15" x14ac:dyDescent="0.3">
-      <c r="K125" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="L125" s="4"/>
-      <c r="M125" s="4"/>
-      <c r="N125" s="4"/>
-      <c r="O125" s="4"/>
+      <c r="K125" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="L125" s="6"/>
+      <c r="M125" s="6"/>
+      <c r="N125" s="6"/>
+      <c r="O125" s="7"/>
     </row>
     <row r="126" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K126" s="2" t="s">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N126" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N126" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="O126" s="3" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="127" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K127" s="2" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="3" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K128" s="2" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="M128" s="2"/>
-      <c r="N128" s="2">
-        <v>0</v>
-      </c>
+      <c r="N128" s="2"/>
       <c r="O128" s="3" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K129" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M129" s="2"/>
-      <c r="N129" s="2">
-        <v>1</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="M129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N129" s="2"/>
       <c r="O129" s="3" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="130" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K130" s="2" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M130" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="M130" s="2"/>
       <c r="N130" s="2"/>
       <c r="O130" s="3" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="131" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K131" s="2" t="s">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M131" s="2" t="s">
-        <v>164</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M131" s="2"/>
       <c r="N131" s="2"/>
       <c r="O131" s="3" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="132" spans="11:15" x14ac:dyDescent="0.3">
       <c r="K132" s="2" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M132" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="N132" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="O132" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="133" spans="11:15" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="133" spans="11:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="K133" s="2" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="L133" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="135" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K135" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="L135" s="6"/>
+      <c r="M135" s="6"/>
+      <c r="N135" s="6"/>
+      <c r="O135" s="7"/>
+    </row>
+    <row r="136" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K136" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="L136" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M136" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N136" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="O136" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="137" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K137" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L137" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M137" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N137" s="2"/>
+      <c r="O137" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="138" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K138" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L138" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N138" s="2"/>
+      <c r="O138" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="139" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K139" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L139" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M139" s="2"/>
+      <c r="N139" s="2">
+        <v>0</v>
+      </c>
+      <c r="O139" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="140" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K140" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L140" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M140" s="2"/>
+      <c r="N140" s="2">
+        <v>1</v>
+      </c>
+      <c r="O140" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="141" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K141" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L141" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N141" s="2"/>
+      <c r="O141" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="142" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K142" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="L142" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M142" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N142" s="2"/>
+      <c r="O142" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="143" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K143" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L143" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M143" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N143" s="2"/>
+      <c r="O143" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="144" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K144" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="L144" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M144" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="N144" s="2"/>
+      <c r="O144" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="146" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K146" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="L146" s="6"/>
+      <c r="M146" s="6"/>
+      <c r="N146" s="6"/>
+      <c r="O146" s="7"/>
+    </row>
+    <row r="147" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K147" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="L147" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M147" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N147" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="O147" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="148" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K148" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L148" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M148" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="N148" s="2"/>
+      <c r="O148" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="149" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K149" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L149" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N149" s="2"/>
+      <c r="O149" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="150" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K150" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L150" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M150" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N150" s="2"/>
+      <c r="O150" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="151" spans="11:15" x14ac:dyDescent="0.3">
+      <c r="K151" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="L151" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M151" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="N151" s="2"/>
+      <c r="O151" s="3" t="s">
         <v>126</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="K146:O146"/>
+    <mergeCell ref="K117:O117"/>
+    <mergeCell ref="K110:O110"/>
+    <mergeCell ref="K99:O99"/>
+    <mergeCell ref="K92:O92"/>
+    <mergeCell ref="K81:O81"/>
+    <mergeCell ref="K73:O73"/>
+    <mergeCell ref="K54:O54"/>
+    <mergeCell ref="K39:O39"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="K26:O26"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K52:O52"/>
-    <mergeCell ref="K70:O70"/>
+    <mergeCell ref="K135:O135"/>
     <mergeCell ref="K125:O125"/>
-    <mergeCell ref="K77:O77"/>
-    <mergeCell ref="K87:O87"/>
-    <mergeCell ref="K93:O93"/>
-    <mergeCell ref="K103:O103"/>
-    <mergeCell ref="K109:O109"/>
-    <mergeCell ref="K116:O116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
